--- a/Аспекты тестов/Набор тестов для функции startsWith.xlsx
+++ b/Аспекты тестов/Набор тестов для функции startsWith.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -250,12 +250,6 @@
     <t>Соотношение заполненности строки и подстроки</t>
   </si>
   <si>
-    <t>Исходная строка пустая, подстркока пустая;
-Исходная строка пустая, подстрока непустая;
-Исходная строка не пустая, подстрока пустая;
-Исходная строка не пустая, подстрока не пустая</t>
-  </si>
-  <si>
     <t>Исходная строка пустая, подстрока пустая</t>
   </si>
   <si>
@@ -296,6 +290,24 @@
   </si>
   <si>
     <t>Подстрока входит несколько раз в строку</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Исходная строка пустая, подстркока пустая;
+Исходная строка пустая, подстрока непустая;
+Исходная строка не пустая, подстрока пустая;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Исходная строка не пустая, подстрока не пустая</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -901,8 +913,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV20"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2216,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -6105,7 +6117,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -7417,10 +7429,10 @@
     </row>
     <row r="6" spans="1:256" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7679,10 +7691,10 @@
     </row>
     <row r="7" spans="1:256" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7941,10 +7953,10 @@
     </row>
     <row r="8" spans="1:256" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8206,7 +8218,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
@@ -8214,7 +8226,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
@@ -8222,12 +8234,12 @@
         <v>24</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>10</v>
@@ -8243,15 +8255,15 @@
     </row>
     <row r="14" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>27</v>
@@ -8259,7 +8271,7 @@
     </row>
     <row r="16" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>28</v>
